--- a/data/template_portfolio_v6.xlsx
+++ b/data/template_portfolio_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXIS\PycharmProjects\Crypto_portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF79225-168F-4B54-B655-EC8CB80EACB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F89F8A-9627-4C40-93D4-7BD32466C345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,10 +979,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$4:$B$24</c:f>
+              <c:f>Résumé!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1041,9 +1041,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1051,10 +1048,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$E$4:$E$24</c:f>
+              <c:f>Résumé!$E$4:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #\ ##0.00_ ;_-[$$-409]* \-#\ ##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1113,9 +1110,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1153,10 +1147,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$4:$B$24</c:f>
+              <c:f>Résumé!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1215,9 +1209,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1225,10 +1216,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$G$4:$G$24</c:f>
+              <c:f>Résumé!$G$4:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #\ ##0.00_ ;_-[$$-409]* \-#\ ##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1287,9 +1278,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1715,10 +1703,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$4:$B$24</c:f>
+              <c:f>Résumé!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1777,9 +1765,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1787,10 +1772,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$H$4:$H$24</c:f>
+              <c:f>Résumé!$H$4:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1849,9 +1834,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2681,10 +2663,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$4:$B$24</c:f>
+              <c:f>Résumé!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2743,9 +2725,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2753,10 +2732,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$F$4:$F$24</c:f>
+              <c:f>Résumé!$F$4:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #\ ##0.00_ ;_-[$$-409]* \-#\ ##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2815,9 +2794,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5098,13 +5074,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5136,13 +5112,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5172,13 +5148,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5208,13 +5184,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1228724</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5244,8 +5220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau15" displayName="Tableau15" ref="B3:K24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B3:K24" xr:uid="{9E1AE481-427A-41EB-8298-6ADD533F39E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau15" displayName="Tableau15" ref="B3:K23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:K23" xr:uid="{9E1AE481-427A-41EB-8298-6ADD533F39E9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Crypto" dataDxfId="9">
       <calculatedColumnFormula>'Historique par crypto'!A2</calculatedColumnFormula>
@@ -5567,10 +5543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,107 +6565,92 @@
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17">
-        <f>hidden_sheet!A22</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="36">
-        <f>hidden_sheet!I22</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="18">
-        <f>hidden_sheet!L22</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <f>hidden_sheet!I22*hidden_sheet!G22</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
-        <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="21" t="e">
-        <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="32">
-        <f>hidden_sheet!F22</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="28">
-        <f>hidden_sheet!E22</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="33" t="e">
-        <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="J26" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="17"/>
-      <c r="B27" s="22" t="s">
-        <v>48</v>
+      <c r="B27" s="24">
+        <f>SUM(Tableau15[Investissement $])</f>
+        <v>0</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="22" t="s">
-        <v>49</v>
+      <c r="D27" s="24">
+        <f>SUM(Tableau15[Gain/Perte $])</f>
+        <v>0</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="22" t="s">
-        <v>50</v>
+      <c r="F27" s="24">
+        <f>SUM(Tableau15[Valeur actuelle $])</f>
+        <v>0</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="23" t="s">
-        <v>51</v>
+      <c r="H27" s="25" t="e">
+        <f>INDEX(Tableau15[Crypto],MATCH(MIN(Tableau15[ROI %]),Tableau15[ROI %],0))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="23" t="s">
-        <v>52</v>
+      <c r="J27" s="26" t="e">
+        <f>INDEX(Tableau15[Crypto],MATCH(MAX(Tableau15[ROI %]),Tableau15[ROI %],0))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -6697,30 +6658,21 @@
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="24">
-        <f>SUM(Tableau15[Investissement $])</f>
-        <v>0</v>
-      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="24">
-        <f>SUM(Tableau15[Gain/Perte $])</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="24">
-        <f>SUM(Tableau15[Valeur actuelle $])</f>
-        <v>0</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="25" t="e">
-        <f>INDEX(Tableau15[Crypto],MATCH(MIN(Tableau15[ROI %]),Tableau15[ROI %],0))</f>
+      <c r="H28" s="27" t="e">
+        <f>MIN(Tableau15[ROI %])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="26" t="e">
-        <f>INDEX(Tableau15[Crypto],MATCH(MAX(Tableau15[ROI %]),Tableau15[ROI %],0))</f>
+      <c r="J28" s="27" t="e">
+        <f>MAX(Tableau15[ROI %])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="17"/>
@@ -6729,37 +6681,37 @@
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="B29" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="27" t="e">
-        <f>MIN(Tableau15[ROI %])</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="27" t="e">
-        <f>MAX(Tableau15[ROI %])</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
-      <c r="B30" s="22" t="s">
-        <v>56</v>
+      <c r="B30" s="34">
+        <f>AVERAGE(Tableau15[Variation H24 %])/100</f>
+        <v>0</v>
       </c>
       <c r="C30" s="17"/>
-      <c r="D30" s="22" t="s">
-        <v>53</v>
+      <c r="D30" s="34" t="e">
+        <f>D27/B27</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -6773,17 +6725,11 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="34">
-        <f>AVERAGE(Tableau15[Variation H24 %])/100</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="34" t="e">
-        <f>D28/B28</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -7443,7 +7389,6 @@
       <c r="O69" s="17"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -7454,10 +7399,6 @@
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="17"/>
@@ -7471,21 +7412,9 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G4:G24">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="G4:G23">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -7496,8 +7425,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H24">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="H4:H23">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -7508,8 +7437,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I24">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="I4:I23">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -7520,8 +7449,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K24">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="K4:K23">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
